--- a/src/main/java/com/testdata/dataprovidorfor.xlsx
+++ b/src/main/java/com/testdata/dataprovidorfor.xlsx
@@ -161,7 +161,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
